--- a/Documente/UserStory+Prioritati/UserStory.xlsx
+++ b/Documente/UserStory+Prioritati/UserStory.xlsx
@@ -117,9 +117,6 @@
     <t>pentru a determina daca aplicantul este potrivit pentru pozitia respectiva</t>
   </si>
   <si>
-    <t>Viewer(user)</t>
-  </si>
-  <si>
     <t>sa creez si sa editez un profil</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>sa pot administra siteul cat mai usor</t>
+  </si>
+  <si>
+    <t>Viewer(user) Candidat</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,10 +704,10 @@
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -862,40 +862,40 @@
     </row>
     <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="45" x14ac:dyDescent="0.25">
@@ -904,24 +904,24 @@
         <v>13</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="13"/>
     </row>
